--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFECA4D3-1F6E-4137-81D7-C4851F67E2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A13F951-F46C-436F-8CE9-48DC3F8D3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8002,7 +8002,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2749F3-DC02-9D6A-8015-BFC1352D29FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CBBDBE-7322-1046-DDE2-B8C276B1388F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8353,7 +8353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F79365-9118-40C1-8902-CFB133C133F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4143F737-9AC8-4012-ADDC-82055FD93A02}">
   <dimension ref="A1:X1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25F8FDB-1DBB-4B91-8B98-7391EB8FE59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C59AB055-2325-4414-AEE2-6CED76C55D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8020,7 +8020,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727E6F6D-684F-1942-B656-05A318192CB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBEE54D-BFDC-6B6F-98C1-2106834B0EFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8371,7 +8371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BFEA6D-7415-471D-8054-0570726C104D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955E16D0-FA7F-4FC4-A97B-50161EF356A4}">
   <dimension ref="A1:AD1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C59AB055-2325-4414-AEE2-6CED76C55D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654D69E7-B48D-4AAB-AD0C-7DFCEE4CD393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8020,7 +8020,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBEE54D-BFDC-6B6F-98C1-2106834B0EFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA0C508-6CC9-B121-B5A6-32974F42D901}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8371,7 +8371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955E16D0-FA7F-4FC4-A97B-50161EF356A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2A844-8749-414D-BC99-5FDBFA292319}">
   <dimension ref="A1:AD1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654D69E7-B48D-4AAB-AD0C-7DFCEE4CD393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4516A24-DF02-4989-ABF0-BC0248E91D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8020,7 +8020,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA0C508-6CC9-B121-B5A6-32974F42D901}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C69B529-0627-E740-D398-1DE377FDD7D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8371,7 +8371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F2A844-8749-414D-BC99-5FDBFA292319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8BC279-52C0-4E8F-968B-7955096303CA}">
   <dimension ref="A1:AD1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94796E23-F2D9-42BF-B962-837DEE749E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F1D0CF-2454-4D3F-BDB1-93C3C7DCEFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7966,7 +7966,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FBFEC2-6328-5BD2-E90E-3C83F84340B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD79FEB-B10D-404C-5075-EA05DE1BC656}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8021,7 +8021,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96ACE880-2C9D-BFD9-18FB-603E24D2FD3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5017A56-2725-2C5A-A237-5CBE6AE0F961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9103,7 +9103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F33DEC2-CF04-4AE1-8CA4-7804DC224717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599D5027-4098-4C32-920F-7B4148296C31}">
   <dimension ref="A1:AI1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD6229-849F-4553-8478-9B51C7B07FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94063A48-8ECD-462D-927A-A67AC9E565B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9122" uniqueCount="2538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9122" uniqueCount="2537">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -7700,9 +7700,6 @@
   </si>
   <si>
     <t>Trd_electricity export</t>
-  </si>
-  <si>
-    <t>~top_ins</t>
   </si>
   <si>
     <t>e_w108050523-220</t>
@@ -7928,11 +7925,11 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9115,7 +9112,7 @@
   <dimension ref="A1:AI1265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9138,16 +9135,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
@@ -9601,11 +9598,11 @@
       <c r="X10" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="AA10" s="24" t="s">
-        <v>2534</v>
-      </c>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
+      <c r="AA10" s="23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
@@ -9653,13 +9650,13 @@
       <c r="X11" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="AA11" s="24" t="s">
+      <c r="AA11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AB11" s="24" t="s">
+      <c r="AB11" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="AC11" s="24" t="s">
+      <c r="AC11" s="23" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -9709,13 +9706,13 @@
       <c r="X12" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AA12" s="23" t="s">
         <v>1239</v>
       </c>
-      <c r="AB12" s="24" t="s">
-        <v>2535</v>
-      </c>
-      <c r="AC12" s="24" t="s">
+      <c r="AB12" s="23" t="s">
+        <v>2534</v>
+      </c>
+      <c r="AC12" s="23" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -9765,13 +9762,13 @@
       <c r="X13" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="AA13" s="24" t="s">
-        <v>2536</v>
-      </c>
-      <c r="AB13" s="24" t="s">
+      <c r="AA13" s="23" t="s">
         <v>2535</v>
       </c>
-      <c r="AC13" s="24" t="s">
+      <c r="AB13" s="23" t="s">
+        <v>2534</v>
+      </c>
+      <c r="AC13" s="23" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -9821,13 +9818,13 @@
       <c r="X14" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="AA14" s="24" t="s">
+      <c r="AA14" s="23" t="s">
         <v>1203</v>
       </c>
-      <c r="AB14" s="24" t="s">
-        <v>2535</v>
-      </c>
-      <c r="AC14" s="24" t="s">
+      <c r="AB14" s="23" t="s">
+        <v>2534</v>
+      </c>
+      <c r="AC14" s="23" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -9877,13 +9874,13 @@
       <c r="X15" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="AA15" s="24" t="s">
+      <c r="AA15" s="23" t="s">
         <v>1178</v>
       </c>
-      <c r="AB15" s="24" t="s">
-        <v>2537</v>
-      </c>
-      <c r="AC15" s="24" t="s">
+      <c r="AB15" s="23" t="s">
+        <v>2536</v>
+      </c>
+      <c r="AC15" s="23" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -41616,16 +41613,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94063A48-8ECD-462D-927A-A67AC9E565B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62852A04-7DA1-4CBF-92F5-C4C789F9148D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9122" uniqueCount="2537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9106" uniqueCount="2534">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -7700,15 +7700,6 @@
   </si>
   <si>
     <t>Trd_electricity export</t>
-  </si>
-  <si>
-    <t>e_w108050523-220</t>
-  </si>
-  <si>
-    <t>e_w222427976-220</t>
-  </si>
-  <si>
-    <t>e_IT80-220</t>
   </si>
 </sst>
 </file>
@@ -7901,7 +7892,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7925,9 +7916,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9111,8 +9099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599D5027-4098-4C32-920F-7B4148296C31}">
   <dimension ref="A1:AI1265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10:AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9135,16 +9123,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
@@ -9598,11 +9586,6 @@
       <c r="X10" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="AA10" s="23" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B11" s="14" t="s">
@@ -9650,15 +9633,6 @@
       <c r="X11" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="AA11" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="AC11" s="23" t="s">
-        <v>1091</v>
-      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
@@ -9706,15 +9680,6 @@
       <c r="X12" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="AA12" s="23" t="s">
-        <v>1239</v>
-      </c>
-      <c r="AB12" s="23" t="s">
-        <v>2534</v>
-      </c>
-      <c r="AC12" s="23" t="s">
-        <v>1093</v>
-      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B13" s="14" t="s">
@@ -9762,15 +9727,6 @@
       <c r="X13" s="14" t="s">
         <v>1245</v>
       </c>
-      <c r="AA13" s="23" t="s">
-        <v>2535</v>
-      </c>
-      <c r="AB13" s="23" t="s">
-        <v>2534</v>
-      </c>
-      <c r="AC13" s="23" t="s">
-        <v>1093</v>
-      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
@@ -9818,15 +9774,6 @@
       <c r="X14" s="12" t="s">
         <v>1245</v>
       </c>
-      <c r="AA14" s="23" t="s">
-        <v>1203</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>2534</v>
-      </c>
-      <c r="AC14" s="23" t="s">
-        <v>1093</v>
-      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B15" s="14" t="s">
@@ -9873,15 +9820,6 @@
       </c>
       <c r="X15" s="14" t="s">
         <v>1245</v>
-      </c>
-      <c r="AA15" s="23" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AB15" s="23" t="s">
-        <v>2536</v>
-      </c>
-      <c r="AC15" s="23" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
@@ -41613,16 +41551,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F50BFE-BD3C-41F5-8379-44F69333087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25507832-A54F-4823-94AC-EF8EC5DE65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11481" uniqueCount="2830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11491" uniqueCount="2833">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -8588,6 +8588,15 @@
   </si>
   <si>
     <t>ELE,DMD,PRE</t>
+  </si>
+  <si>
+    <t>Trd_electricity import</t>
+  </si>
+  <si>
+    <t>e_IT3-380,e_IT39-220,e_IT60-400,e_w102675884-220,e_w103127417-220,e_w103653567-225,e_w104114052-220,e_w105462289-220,e_w159821869-220,e_w41892273-220,e_w41892273-400,e_w42206116-380,e_w491424937-400,e_w61038773-220,e_w72466334-380,e_w72570378-380,e_w98787157-220</t>
+  </si>
+  <si>
+    <t>Trd_electricity export</t>
   </si>
 </sst>
 </file>
@@ -8851,7 +8860,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DC76AB-CBBA-850E-E26C-CC6B9A0871FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4811321F-0539-A262-0694-7A5B179AB4A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8906,7 +8915,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D1599C-CA06-EE56-D1FA-A6EB93F2C404}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E83683A-A818-3A14-03B0-D9FC102BEA17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9988,8 +9997,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE17A1C-82A1-4CF8-8CB0-53E82B290FAC}">
-  <dimension ref="A1:AE1265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7395F15B-B9A8-4F26-9104-2B06808636E0}">
+  <dimension ref="A1:AI1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10008,9 +10017,12 @@
     <col min="22" max="22" width="30.59765625" customWidth="1"/>
     <col min="23" max="23" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.59765625" customWidth="1"/>
+    <col min="33" max="33" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.59765625" customWidth="1"/>
+    <col min="35" max="35" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>87</v>
       </c>
@@ -10022,7 +10034,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:31" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -10035,8 +10047,11 @@
       <c r="U2" s="10" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AG2" s="10" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
@@ -10088,8 +10103,17 @@
       <c r="AA3" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AG3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B4" s="21" t="s">
         <v>91</v>
       </c>
@@ -10153,8 +10177,17 @@
       <c r="AE4" t="s">
         <v>2828</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AG4" s="21" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AH4" s="21" t="s">
+        <v>2831</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>92</v>
       </c>
@@ -10218,8 +10251,17 @@
       <c r="AE5" t="s">
         <v>2829</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="AG5" s="25" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AH5" s="25" t="s">
+        <v>2831</v>
+      </c>
+      <c r="AI5" s="25" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B6" s="21" t="s">
         <v>93</v>
       </c>
@@ -10269,7 +10311,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B7" s="25" t="s">
         <v>94</v>
       </c>
@@ -10319,7 +10361,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B8" s="21" t="s">
         <v>95</v>
       </c>
@@ -10369,7 +10411,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B9" s="25" t="s">
         <v>96</v>
       </c>
@@ -10419,7 +10461,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B10" s="21" t="s">
         <v>97</v>
       </c>
@@ -10469,7 +10511,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B11" s="25" t="s">
         <v>98</v>
       </c>
@@ -10519,7 +10561,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B12" s="21" t="s">
         <v>99</v>
       </c>
@@ -10569,7 +10611,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B13" s="25" t="s">
         <v>100</v>
       </c>
@@ -10619,7 +10661,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B14" s="21" t="s">
         <v>101</v>
       </c>
@@ -10669,7 +10711,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B15" s="25" t="s">
         <v>102</v>
       </c>
@@ -10719,7 +10761,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B16" s="21" t="s">
         <v>103</v>
       </c>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25507832-A54F-4823-94AC-EF8EC5DE65F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6588BEA9-71E0-4258-B3AD-9761B8B055EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8860,7 +8860,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4811321F-0539-A262-0694-7A5B179AB4A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AFCB4B-8D92-7C0A-BE2A-7E0BCC20D03B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8915,7 +8915,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E83683A-A818-3A14-03B0-D9FC102BEA17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C06BED6-A4D1-9CFC-1E36-5D6FB1E4251C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9997,7 +9997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7395F15B-B9A8-4F26-9104-2B06808636E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08746541-7D7A-4CD6-9478-3845CDB9F23E}">
   <dimension ref="A1:AI1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6588BEA9-71E0-4258-B3AD-9761B8B055EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C75067-E8D8-49B9-9CDF-09C3AE9268B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8860,7 +8860,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AFCB4B-8D92-7C0A-BE2A-7E0BCC20D03B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF34F918-5036-8603-C853-EBA97190F220}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8915,7 +8915,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C06BED6-A4D1-9CFC-1E36-5D6FB1E4251C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF276E6-4732-8621-2BEA-AD8F46AAB61E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9997,7 +9997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08746541-7D7A-4CD6-9478-3845CDB9F23E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D1E57A-9B63-47BE-BA4F-E018B23FA4F3}">
   <dimension ref="A1:AI1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C75067-E8D8-49B9-9CDF-09C3AE9268B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D598053-A892-41DC-9199-22DD19D07CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8860,7 +8860,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF34F918-5036-8603-C853-EBA97190F220}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9BAE19-828B-02C7-DCBD-CA4F17F58AE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8915,7 +8915,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF276E6-4732-8621-2BEA-AD8F46AAB61E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18293A86-AC73-A503-EA13-1CC1CE032B49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9997,7 +9997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D1E57A-9B63-47BE-BA4F-E018B23FA4F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6F343F-1099-4F5F-A03F-9B48CB389720}">
   <dimension ref="A1:AI1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D598053-A892-41DC-9199-22DD19D07CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0A1CD2-50AA-49F6-A620-F9ED41CEC539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8860,7 +8860,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9BAE19-828B-02C7-DCBD-CA4F17F58AE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E821F26E-9C73-0500-F637-3CC381634AB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8915,7 +8915,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18293A86-AC73-A503-EA13-1CC1CE032B49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3126FAC4-D42A-7D2D-5D51-F8F276651C13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9997,7 +9997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6F343F-1099-4F5F-A03F-9B48CB389720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD542D9-7578-4669-92C8-413E14829B2D}">
   <dimension ref="A1:AI1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0A1CD2-50AA-49F6-A620-F9ED41CEC539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60F7AA3-F3C6-4A67-9C45-D735D77821D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8860,7 +8860,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E821F26E-9C73-0500-F637-3CC381634AB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA4AC87-A866-D291-7001-CE05DFF776F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8915,7 +8915,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3126FAC4-D42A-7D2D-5D51-F8F276651C13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC3DA3E-B6AF-D105-B102-E36882CD32B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9997,7 +9997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD542D9-7578-4669-92C8-413E14829B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571C8B98-976F-40E5-87BD-FECD4CE19DDC}">
   <dimension ref="A1:AI1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2A1545-7A82-4B7F-9676-6938FFD6E9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44599ADF-FFAE-4C96-98F2-2D5385CBEB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9863,7 +9863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2120A05-82F5-479F-B954-942F83022715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912026F5-1D55-4609-89CE-B06F340955E0}">
   <dimension ref="B2:AI1284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE299BAD-1FE0-4A5A-A706-A098A99B0116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{704F8FB4-D714-4B71-A7FA-D5DA62A2E6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9863,7 +9863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27B104D-6E27-43F9-8795-D8B99A93B65B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AE219F-FB3B-46F8-993A-D2AE9B7EEE29}">
   <dimension ref="B2:AI1284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13477F6E-BA32-4E5E-8FA6-03508FE4F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC52318A-299A-4BD5-9EDE-C0CD468E9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8763,7 +8763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29A770E-AB74-484C-AEC0-A9D2A8D46A6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4064E900-BD40-4460-812B-BD1CD4FBEE08}">
   <dimension ref="B2:AI1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC52318A-299A-4BD5-9EDE-C0CD468E9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0592952C-1030-487B-AEA8-3C35C1D4924A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8763,7 +8763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4064E900-BD40-4460-812B-BD1CD4FBEE08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9703C-A7C3-4D7F-971F-EF5E7138A309}">
   <dimension ref="B2:AI1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3998E13F-A99C-4EFF-86B9-AA454F5A7514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F047DC10-C9B5-43B4-AF13-29EB1C48C693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8791,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A995B5-970B-46D6-8E67-A6635067FABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23D3CF6-C8E6-4413-9CDB-8B7C4A54E1D5}">
   <dimension ref="B2:AI1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F047DC10-C9B5-43B4-AF13-29EB1C48C693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2322552-367D-4876-BEBF-E6EE24030575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8791,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23D3CF6-C8E6-4413-9CDB-8B7C4A54E1D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA19C1E-DB62-4CE6-9EC0-DC5ADC63EA85}">
   <dimension ref="B2:AI1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2322552-367D-4876-BEBF-E6EE24030575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7058ED0-4E96-4B9C-AABB-CEA4511440FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8791,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA19C1E-DB62-4CE6-9EC0-DC5ADC63EA85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176D15D4-2F1D-4249-80F0-6535AC5B1A20}">
   <dimension ref="B2:AI1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7058ED0-4E96-4B9C-AABB-CEA4511440FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA009416-42CF-4168-A974-BD7166479832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8791,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176D15D4-2F1D-4249-80F0-6535AC5B1A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D40CD8-DB00-4C96-82D8-3A218AEF03CE}">
   <dimension ref="B2:AI1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA009416-42CF-4168-A974-BD7166479832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA1CD3C-0CCB-4FAE-B6DF-141EAF33FD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8791,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D40CD8-DB00-4C96-82D8-3A218AEF03CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6CFEDC-E56D-460B-9579-798B670AC720}">
   <dimension ref="B2:AI1212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
